--- a/server/src/expenseDocumentTemplate.xlsx
+++ b/server/src/expenseDocumentTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o.halukkarakaya/Desktop/dosyalar/projeler/11:2022/Benek-Pet-Sitter-Finder-App/server/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B5553B-7763-4543-B6D7-5EBD039B7E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DD97FA-92DC-8E4C-81E5-49FAEAF63C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6320" yWindow="1900" windowWidth="28300" windowHeight="17240" xr2:uid="{8758770F-3454-F942-8F5D-6E4457BA192C}"/>
   </bookViews>
@@ -564,19 +564,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,81 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,8 +1061,8 @@
   </sheetPr>
   <dimension ref="B1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1085,16 +1085,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="20" customHeight="1"/>
     <row r="2" spans="2:20" ht="32" customHeight="1">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="K2" s="16" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="K2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
@@ -1102,14 +1102,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="32" customHeight="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
@@ -1127,11 +1127,11 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="2:20" ht="24" customHeight="1">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1142,20 +1142,20 @@
       <c r="L5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:20" ht="24" customHeight="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1178,19 +1178,19 @@
       <c r="L7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
     </row>
     <row r="8" spans="2:20" ht="24" customHeight="1">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1202,12 +1202,12 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:20" ht="24" customHeight="1">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1230,19 +1230,19 @@
       <c r="L10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="2:20" ht="24" customHeight="1">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1250,20 +1250,20 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:20" ht="24" customHeight="1">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:20" ht="24" customHeight="1">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
@@ -1274,88 +1274,88 @@
       <c r="D15" s="3"/>
     </row>
     <row r="17" spans="2:15" ht="39" customHeight="1">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="30" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="26" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
     </row>
     <row r="18" spans="2:15" ht="39" customHeight="1">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="32" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="18" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="2:15" ht="39" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="2:15" ht="39" customHeight="1">
-      <c r="B20" s="46"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="2:15" ht="39" customHeight="1">
       <c r="D21" s="1"/>
@@ -1363,61 +1363,61 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="18" t="s">
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="2:15" ht="39" customHeight="1">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="51" t="s">
+      <c r="H22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="18" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:15" ht="39" customHeight="1">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="37" t="s">
+      <c r="H23" s="19"/>
+      <c r="I23" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="18" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="2:15" ht="39" customHeight="1">
       <c r="B24" s="10" t="s">
@@ -1426,24 +1426,24 @@
       <c r="C24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="48"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="5"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="37" t="s">
+      <c r="H24" s="19"/>
+      <c r="I24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="18" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="25"/>
     </row>
     <row r="25" spans="2:15" ht="39" customHeight="1">
       <c r="B25" s="10" t="s">
@@ -1452,24 +1452,24 @@
       <c r="C25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="37" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="18" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="25"/>
     </row>
     <row r="26" spans="2:15" ht="39" customHeight="1">
       <c r="B26" s="10" t="s">
@@ -1478,24 +1478,24 @@
       <c r="C26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="18" t="s">
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="2:15" ht="39" customHeight="1">
       <c r="B27" s="10" t="s">
@@ -1504,18 +1504,18 @@
       <c r="C27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="2"/>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="2:15" ht="39" customHeight="1">
       <c r="B28" s="10" t="s">
@@ -1524,40 +1524,39 @@
       <c r="C28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="16"/>
       <c r="I28" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B11:E13"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="K2:O3"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="K27:O28"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
@@ -1574,24 +1573,26 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B22:E23"/>
-    <mergeCell ref="K2:O3"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="K27:O28"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B11:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H22:H25"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" scale="41" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>